--- a/web/cfg/gbltemp.xlsx
+++ b/web/cfg/gbltemp.xlsx
@@ -36,38 +36,16 @@
 Tickets Absents</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">       
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="64"/>
-        <rFont val="Tahoma"/>
-      </rPr>
-      <t xml:space="preserve">      Traités      &lt; 1mn</t>
-    </r>
+    <t xml:space="preserve">       
+      Traités      &lt; 1mn</t>
   </si>
   <si>
     <t xml:space="preserve">
 Sans Affectation</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="64"/>
-        <rFont val="Tahoma"/>
-      </rPr>
-      <t xml:space="preserve">Nb.Absents /Nb.Tickets%</t>
-    </r>
+    <t xml:space="preserve"> 
+Nb.Absents /Nb.Tickets%</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -332,7 +310,7 @@
     <font>
       <name val="Arial"/>
       <b/>
-      <color indexed="64"/>
+      <color theme="0" tint="0"/>
       <sz val="20"/>
       <u val="single"/>
     </font>
@@ -344,9 +322,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <b/>
+      <color theme="0" tint="0"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Tahoma"/>
+      <color indexed="65"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <b/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <sz val="10"/>
     </font>
     <font>
@@ -355,19 +344,8 @@
       <color indexed="65"/>
       <sz val="10"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <color indexed="65"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="10"/>
-    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +452,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB83DBA"/>
+        <bgColor rgb="FFB83DBA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -482,20 +478,8 @@
         <bgColor theme="0" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -611,44 +595,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7292CC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7292CC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7292CC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7292CC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7292CC"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF7292CC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7292CC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF7292CC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7292CC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7292CC"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -701,38 +653,29 @@
     <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="17" fillId="18" borderId="9" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="18" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="18" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="19" borderId="9" numFmtId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="20" borderId="10" numFmtId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="20" fillId="20" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="20" borderId="0" numFmtId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="20" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="20" fillId="20" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="20" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="20" fillId="20" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="20" fillId="20" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="21" fillId="21" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="22" fillId="21" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="22" fillId="22" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="23" fillId="21" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="23" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1294,7 +1237,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
-      <pane state="frozen" topLeftCell="A4" ySplit="3"/>
+      <pane state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1319,7 +1262,7 @@
     <col bestFit="1" customWidth="1" min="22" max="257" width="9.1406200000000002"/>
   </cols>
   <sheetData>
-    <row r="1" ht="0.40000000000000002" customHeight="1"/>
+    <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="31.350000000000001" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1333,73 +1276,74 @@
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" ht="2.1000000000000001" customHeight="1"/>
-    <row r="4" ht="50.25" customHeight="1">
-      <c r="B4" s="3" t="s">
+    <row r="3" ht="37.5" customHeight="1"/>
+    <row r="4" s="4" customFormat="1" ht="50.25" customHeight="1">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="13.5">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="6">
         <v>1972736</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="6">
         <v>305808</v>
       </c>
     </row>
@@ -1449,10 +1393,10 @@
       <c r="Q6" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="6">
         <v>1255658</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="6">
         <v>229449</v>
       </c>
     </row>
@@ -1460,58 +1404,58 @@
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="6">
         <v>89842</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="6">
         <v>3699</v>
       </c>
     </row>
     <row r="8" ht="25.5">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="7" t="s">
         <v>50</v>
       </c>
       <c r="S8" s="8">
@@ -1530,10 +1474,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
